--- a/src/test/resources/Tests/PersonCreation.xlsx
+++ b/src/test/resources/Tests/PersonCreation.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Person_Creation" sheetId="2" r:id="rId1"/>
     <sheet name="Person_Creation_Data" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -38,33 +38,21 @@
     <t>username</t>
   </si>
   <si>
-    <t>login_UserName</t>
-  </si>
-  <si>
     <t>Enter User Name</t>
   </si>
   <si>
     <t>pwd</t>
   </si>
   <si>
-    <t>login_Password</t>
-  </si>
-  <si>
     <t>Enter Password</t>
   </si>
   <si>
     <t>Click</t>
   </si>
   <si>
-    <t>login_loginbtn</t>
-  </si>
-  <si>
     <t>Click Login button</t>
   </si>
   <si>
-    <t>Person_Newbutton</t>
-  </si>
-  <si>
     <t>Click New Button</t>
   </si>
   <si>
@@ -74,72 +62,48 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Person_Title</t>
-  </si>
-  <si>
     <t>Enter Title</t>
   </si>
   <si>
     <t>FirstName</t>
   </si>
   <si>
-    <t>Person_FirstName</t>
-  </si>
-  <si>
     <t>Enter First Name</t>
   </si>
   <si>
     <t>LastName</t>
   </si>
   <si>
-    <t>Person_LastName</t>
-  </si>
-  <si>
     <t>Enter Last Name</t>
   </si>
   <si>
     <t>DOB</t>
   </si>
   <si>
-    <t>Person_DateofBirth</t>
-  </si>
-  <si>
     <t>Enter DOB</t>
   </si>
   <si>
     <t>Language</t>
   </si>
   <si>
-    <t>Person_Language</t>
-  </si>
-  <si>
     <t>Enter Language</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Person_Gender</t>
-  </si>
-  <si>
     <t>Select Gender</t>
   </si>
   <si>
     <t>Ethnicity</t>
   </si>
   <si>
-    <t>Person_Ethnicity</t>
-  </si>
-  <si>
     <t>Select Ethnicity</t>
   </si>
   <si>
     <t>PrimaryRace</t>
   </si>
   <si>
-    <t>Person_RacePrimary</t>
-  </si>
-  <si>
     <t>Select Primary Race</t>
   </si>
   <si>
@@ -149,24 +113,15 @@
     <t>SecondaryRace</t>
   </si>
   <si>
-    <t>Person_RaceSecondary</t>
-  </si>
-  <si>
     <t>Click Save</t>
   </si>
   <si>
-    <t>Person_Save</t>
-  </si>
-  <si>
     <t>verifyExpected</t>
   </si>
   <si>
     <t>Expected</t>
   </si>
   <si>
-    <t>Person_PersonName</t>
-  </si>
-  <si>
     <t>Verify Person Creation</t>
   </si>
   <si>
@@ -212,16 +167,61 @@
     <t>PersonCreation</t>
   </si>
   <si>
-    <t>Home_Person</t>
-  </si>
-  <si>
     <t>Click Person Tab</t>
+  </si>
+  <si>
+    <t>Login_Username_Text</t>
+  </si>
+  <si>
+    <t>Login_Password_Text</t>
+  </si>
+  <si>
+    <t>Login_Login_Button</t>
+  </si>
+  <si>
+    <t>Home_Persons_Tab</t>
+  </si>
+  <si>
+    <t>Persons_New_Button</t>
+  </si>
+  <si>
+    <t>Persons_Title_List</t>
+  </si>
+  <si>
+    <t>Persons_FirstName_Text</t>
+  </si>
+  <si>
+    <t>Persons_LastName_Text</t>
+  </si>
+  <si>
+    <t>Persons_DateofBirth_Text</t>
+  </si>
+  <si>
+    <t>Persons_Language_List</t>
+  </si>
+  <si>
+    <t>Persons_Gender_List</t>
+  </si>
+  <si>
+    <t>Persons_Ethnicity_List</t>
+  </si>
+  <si>
+    <t>Persons_RacePrimary_List</t>
+  </si>
+  <si>
+    <t>Persons_RaceSecondary_List</t>
+  </si>
+  <si>
+    <t>Persons_Save_Button</t>
+  </si>
+  <si>
+    <t>Persons_PersonName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -638,7 +638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
@@ -669,7 +671,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -678,257 +680,257 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12.75"/>
   <cols>
@@ -963,43 +965,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="10" customFormat="1" ht="26.25">
@@ -1007,40 +1009,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
